--- a/安親班_收費資料.xlsx
+++ b/安親班_收費資料.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11175" windowHeight="3840" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11175" windowHeight="3840"/>
   </bookViews>
   <sheets>
     <sheet name="學生名單" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="46">
   <si>
     <t>年級</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -178,6 +178,38 @@
   </si>
   <si>
     <t>教材/冷氣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>呂彥臻1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王大同1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>楊小明1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>劉大象1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陳中一1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孫二1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>呂彥臻2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王大同2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -761,10 +793,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -847,6 +879,94 @@
       </c>
       <c r="C7" s="5" t="s">
         <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -861,7 +981,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>

--- a/安親班_收費資料.xlsx
+++ b/安親班_收費資料.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11175" windowHeight="3840"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11175" windowHeight="3840" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="學生名單" sheetId="1" r:id="rId1"/>
@@ -73,14 +73,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>請於拿到收費袋一週內繳費，以便學校行政事務</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>安親班收費至6:15，請家長於7:00前接小朋友，如當日有狀況，請洽蔣老師</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>共計</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -169,14 +161,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>若有任何問題請撥0909-413549、0926-231858 蔣老師</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>教材費每學期僅收一次，冷氣費則依當月使用狀況而定</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>教材/冷氣</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -210,6 +194,22 @@
   </si>
   <si>
     <t>王大同2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.請於拿到收費袋一週內繳費，以便學校行政事務</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.安親班收費至6:15，請家長於7:00前接小朋友，如當日有狀況，請洽蔣老師</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.若有任何問題請撥0909-413549、0926-231858 蔣老師</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.教材費每學期僅收一次，冷氣費則依當月使用狀況而定</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -795,7 +795,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
@@ -820,7 +820,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>5</v>
@@ -831,7 +831,7 @@
         <v>6</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>7</v>
@@ -839,54 +839,54 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>5</v>
@@ -894,10 +894,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>7</v>
@@ -905,54 +905,54 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>5</v>
@@ -960,10 +960,10 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>7</v>
@@ -993,7 +993,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
@@ -1008,17 +1008,17 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1048,31 +1048,31 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I2" s="3"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I3" s="3"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I4" s="3"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I5" s="3"/>
     </row>
     <row r="6" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I6" s="4"/>
     </row>
@@ -1087,8 +1087,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1104,22 +1104,22 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
